--- a/StatusInvestcomp.xlsx
+++ b/StatusInvestcomp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silvi\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86931069-F22B-4D3E-AD28-47B98EE745D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C51FE1-07FA-445F-8697-0C9D098D72AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,15 @@
     <sheet name="IndiCrescimento" sheetId="6" r:id="rId8"/>
     <sheet name="IndEmpresa" sheetId="7" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$C$5</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="285">
   <si>
     <t>FONTE</t>
   </si>
@@ -432,18 +435,6 @@
     <t>Rentabilidade StatusInvest</t>
   </si>
   <si>
-    <t>ROE:  21.44%</t>
-  </si>
-  <si>
-    <t>ROA:  7.86%</t>
-  </si>
-  <si>
-    <t>ROIC:  18.31%</t>
-  </si>
-  <si>
-    <t>Giro ativos:  0.47</t>
-  </si>
-  <si>
     <t>profitability_indicators</t>
   </si>
   <si>
@@ -453,18 +444,638 @@
     <t>Crescimento StatusInvest</t>
   </si>
   <si>
+    <t>Eficiência StatusInvest</t>
+  </si>
+  <si>
+    <t>Margem bruta</t>
+  </si>
+  <si>
+    <t>Margem EBIT</t>
+  </si>
+  <si>
+    <t>Margem líquida</t>
+  </si>
+  <si>
+    <t>Endividamento StatusInvest</t>
+  </si>
+  <si>
+    <t>ROE:  </t>
+  </si>
+  <si>
+    <t>ROA:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROIC: </t>
+  </si>
+  <si>
+    <t>Giro ativos:  </t>
+  </si>
+  <si>
+    <t>M. Bruta:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. EBITDA: </t>
+  </si>
+  <si>
+    <t>M. EBIT:  </t>
+  </si>
+  <si>
+    <t>M. Liquida:  </t>
+  </si>
+  <si>
+    <r>
+      <t>Div. liquida/PL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Div. liquida/EBITDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PL/Ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Liq. corrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>indebtedness_indicat</t>
+  </si>
+  <si>
+    <t>Dívida líquida/Patrim</t>
+  </si>
+  <si>
+    <t>Dívida líquida/EBITDA</t>
+  </si>
+  <si>
+    <t>Liquidez corrente</t>
+  </si>
+  <si>
+    <t>Valuation StatusInvest</t>
+  </si>
+  <si>
+    <r>
+      <t>D.Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/VP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EV/EBITDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EV/EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>valuation_indicators</t>
+  </si>
+  <si>
+    <r>
+      <t>P/EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/Ativo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/SR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/Cap. Giro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/Ativo Circ. Liq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <t>detailed_information</t>
+  </si>
+  <si>
+    <t>Preço/Capital de giro</t>
+  </si>
+  <si>
+    <t>Preço/Ativ circ liq</t>
+  </si>
+  <si>
+    <t>PSR</t>
+  </si>
+  <si>
+    <t>Preço/Ativos</t>
+  </si>
+  <si>
+    <r>
+      <t>PEG Ratio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/EBITDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Div. liquida/EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Passivos/Ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>CAGR Receitas 5 anos</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CAGR Lucros 5 anos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
       <t>:  </t>
     </r>
+  </si>
+  <si>
+    <t>Empresa StatusInvest</t>
+  </si>
+  <si>
+    <r>
+      <t>Valor atual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dividend Yield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Valorizacao (12m)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LIQUIDEZ MEDIA DIARIA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Patrimonio liquido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ativo circulante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Divida bruta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Disponibilidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Divida liquida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Valor de mercado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>financial_summary</t>
+  </si>
+  <si>
+    <t>Volume negociado por dia</t>
+  </si>
+  <si>
+    <r>
+      <t>TAG ALONG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PARTICIPACAO NO IBOV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MERCADO DE OPCOES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>balance_sheet</t>
+  </si>
+  <si>
+    <t>Patrimônio líquid</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Dívida bruta</t>
+  </si>
+  <si>
+    <t>Dívida líquida</t>
+  </si>
+  <si>
+    <t>Disponibilidades</t>
+  </si>
+  <si>
+    <t>Cotação</t>
+  </si>
+  <si>
+    <t>price_information</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
     <r>
       <rPr>
         <sz val="8"/>
@@ -472,21 +1083,90 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>10.54%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CAGR Lucros 5 anos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>:  </t>
+      <t>--------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Valor de mercado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>481910000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Valor da firma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>726229000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nº de ações</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12888700000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Último balanço</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -495,39 +1175,1466 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>26.86%</t>
-    </r>
-  </si>
-  <si>
-    <t>Eficiência StatusInvest</t>
-  </si>
-  <si>
-    <t>M. Bruta:  51.79%</t>
-  </si>
-  <si>
-    <t>M. EBITDA:  45.89%</t>
-  </si>
-  <si>
-    <t>M. EBIT:  32.48%</t>
-  </si>
-  <si>
-    <t>M. Liquida:  16.81%</t>
-  </si>
-  <si>
-    <t>Margem bruta</t>
-  </si>
-  <si>
-    <t>Margem EBIT</t>
-  </si>
-  <si>
-    <t>Margem líquida</t>
+      <t>30/09/2024</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Setor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Petróleo, Gás e Biocombustíveis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Subsetor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Exploração, Refino e Distribuição</t>
+    </r>
+  </si>
+  <si>
+    <t>stock_identification</t>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-----</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cotação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>37.39</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Última cotação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30/01/2025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tipo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Volume negociado por dia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1116560000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30.54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LPA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6.57</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mínimo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>29.36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Máximo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>37.74</t>
+    </r>
+  </si>
+  <si>
+    <t>oscillations</t>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0133</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mês</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0332</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30 dias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0485</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12 meses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1192</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0332</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1802</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.9443</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.2276</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-0.0769</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>---------------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5.69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/VP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P/EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PSR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.96</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Preço/Ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Preço/Ativ circ liq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-0.93</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dividend Yield</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.213</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EV/EBITDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.46</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EV/EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Preço/Capital de giro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-41.68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-------------------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ROE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.215</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ROIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giro ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Margem bruta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.518</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Margem EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.446</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Margem líquida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.169</t>
+    </r>
+  </si>
+  <si>
+    <t>indebtedness_indicators</t>
+  </si>
+  <si>
+    <r>
+      <t>Liquidez corrente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.94</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dívida líquida/Patrim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dívida líquida/EBITDA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.83</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PL/Ativos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.37</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>----------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ativo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1077850000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ativo circulante</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>167371000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Disponibilidades</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>77838000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dívida bruta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>322157000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dívida líquida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>244319000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Patrimônio líquido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>393655000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>------------------------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Receita líquida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>129582000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>57694000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Lucro líquido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>32555000000</t>
+    </r>
+  </si>
+  <si>
+    <t>income_statement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Receita líquida</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>503819000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EBIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>224928000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Lucro líquido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>84693000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>---</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>----------</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Código</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PETR4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Empresa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PETROBRAS</t>
+    </r>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <r>
+      <t>EBIT/Ativo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 20.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Crescimento receita</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 0.169</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dívida bruta/Patrim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 0.82</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,8 +2661,72 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,8 +2745,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F1F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -583,14 +2838,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,123 +3303,1110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="F7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="F8" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="F9" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="F10" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="F11" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="F12" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="F13" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="F15" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="F18" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="F19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="F20" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="F23" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="F25" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F43" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F44" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="F47" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="F48" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="F52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F60" s="19"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F61" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F62" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F63" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F64" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F65" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F66" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F67" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F68" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F69" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F70" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F71" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G71" s="5"/>
+      <c r="H71" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F72" s="19"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F73" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F74" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F75" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F76" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G76" s="5"/>
+      <c r="H76" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>138</v>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="5"/>
+      <c r="F77" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G78" s="5"/>
+      <c r="H78" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="9"/>
+      <c r="F79" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="5"/>
+      <c r="F80" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G80" s="5"/>
+      <c r="H80" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="9"/>
+      <c r="F81" s="19"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="5"/>
+      <c r="F82" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F83" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F84" s="14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F85" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G85" s="5"/>
+      <c r="H85" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F86" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F87" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F88" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F89" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F90" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F91" s="19"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F92" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G92" s="16"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F93" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G93" s="16"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F94" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F95" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="F96" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F97" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F98" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F99" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F100" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F101" s="14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F102" s="14" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C5" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/StatusInvestcomp.xlsx
+++ b/StatusInvestcomp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C51FE1-07FA-445F-8697-0C9D098D72AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C915D-6949-4918-A959-1E8FD4822829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,14 +24,14 @@
     <sheet name="IndEmpresa" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="341">
   <si>
     <t>FONTE</t>
   </si>
@@ -2628,13 +2628,181 @@
       </rPr>
       <t>: 0.82</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">           '  '</t>
+  </si>
+  <si>
+    <t>{'BBAS3': {'Valor atual': '27.83',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Min. 52 semanas': '23.73', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Max. 52 semanas': '28.48',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Dividend Yield': '9.39', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Valorizacao (12m)': '1.05%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Tipo': 'ON',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'TAG ALONG': '100 %', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'LIQUIDEZ MEDIA DIARIA': '382263953.59',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'PARTICIPACAO NO IBOV': '3.876', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'MERCADO DE OPCOES': '607',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'D.Y': '9.39%',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/L': '4.99', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'PEG Ratio': '-1.26',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/VP': '0.88', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'EV/EBITDA': '-',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'EV/EBIT': '4.75',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/EBITDA': '-', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/EBIT': '4.75', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'VPA': '31.53', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/Ativo': '0.07',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'LPA': '5.58', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/SR': '0.61', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/Cap. Giro': '2.08',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'P/Ativo Circ. Liq.': '-0.07', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Div. liquida/PL': '-', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Div. liquida/EBITDA': '-',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Div. liquida/EBIT': '-', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'PL/Ativos': '0.07', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Passivos/Ativos': '0.92',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Liq. corrente': '18.28', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'M. Bruta': '37.76%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'M. EBITDA': '-%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'M. EBIT': '12.73%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'M. Liquida': '12.13%',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'ROE': '17.70%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'ROA': '1.31%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'ROIC': '-%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Giro ativos': '0.11',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'CAGR Receitas 5 anos': '17.16%', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'CAGR Lucros 5 anos': '18.25%',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Patrimonio liquido': '180665826000',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Ativos': '2436404436000', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Ativo circulante': '81013704000', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Divida bruta': '-', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Disponibilidade': '81013704000',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Divida liquida': '-', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Valor de mercado': '159489111333',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Valor de firma': '159489111333', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'No total de papeis\n\n  '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'help_outline': '5730834040', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Segmento de listagem': 'Novo Mercado',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           'Free Float': '49.60%'}}</t>
+  </si>
+  <si>
+    <t>Valor atual': '27.83',</t>
+  </si>
+  <si>
+    <t>Valor da Firma</t>
+  </si>
+  <si>
+    <t>Free Float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2725,8 +2893,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="JetBrains Mono"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2829,8 +3002,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2853,11 +3032,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2897,7 +3087,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2908,6 +3097,13 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3214,7 +3410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3228,7 +3424,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -3236,12 +3432,12 @@
     <col min="9" max="9" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3285,7 +3481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -3303,1110 +3499,1415 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="18"/>
+      <c r="L1" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="G2" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" s="18"/>
+      <c r="L2" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="28" t="s">
+        <v>321</v>
+      </c>
       <c r="C3" s="5"/>
-      <c r="F3" s="20" t="s">
+      <c r="D3" s="5"/>
+      <c r="G3" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L3" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" s="5"/>
+      <c r="L4" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" s="5"/>
+      <c r="L5" s="28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="5"/>
+      <c r="G6" s="19"/>
+      <c r="L6" s="28" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="F7" s="17" t="s">
+      <c r="D7" s="5"/>
+      <c r="G7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" s="17"/>
+      <c r="L7" s="28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="5"/>
-      <c r="F8" s="17" t="s">
+      <c r="D8" s="5"/>
+      <c r="G8" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="17"/>
+      <c r="L8" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="28" t="s">
+        <v>324</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="5"/>
+      <c r="G9" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="20"/>
+      <c r="L9" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="28" t="s">
+        <v>325</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="5"/>
+      <c r="G10" t="s">
         <v>212</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="H10" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L10" s="28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="F11" s="21" t="s">
+      <c r="D11" s="5"/>
+      <c r="G11" t="s">
         <v>213</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L11" s="28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="F12" s="21" t="s">
+      <c r="D12" s="5"/>
+      <c r="G12" t="s">
         <v>214</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="L12" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="5"/>
-      <c r="F13" s="21" t="s">
+      <c r="D13" s="5"/>
+      <c r="G13" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L13" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="G14" t="s">
         <v>216</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L14" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="28" t="s">
+        <v>317</v>
+      </c>
       <c r="C15" s="5"/>
-      <c r="F15" s="21" t="s">
+      <c r="D15" s="5"/>
+      <c r="G15" t="s">
         <v>217</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L15" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F16" s="22"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
       <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L16" s="28" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="17"/>
+      <c r="L17" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="F18" s="17" t="s">
+      <c r="D18" s="5"/>
+      <c r="G18" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="17"/>
+      <c r="L18" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="F19" t="s">
+      <c r="D19" s="5"/>
+      <c r="G19" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="L19" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="5"/>
-      <c r="F20" s="21" t="s">
+      <c r="D20" s="5"/>
+      <c r="G20" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L20" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="D21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
         <v>221</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L21" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D22" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="28" t="s">
+        <v>312</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="F23" s="16" t="s">
+      <c r="D23" s="5"/>
+      <c r="G23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H23" s="16"/>
+      <c r="L23" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="16" t="s">
+      <c r="D24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="16"/>
+      <c r="L24" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="28" t="s">
+        <v>314</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="F25" s="14" t="s">
+      <c r="D25" s="5"/>
+      <c r="G25" s="14" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L25" s="28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="5"/>
+      <c r="I26" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L26" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="5"/>
+      <c r="G27" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="24" t="s">
+      <c r="H27" s="5"/>
+      <c r="I27" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="L27" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="D28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5"/>
+      <c r="I28" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L28" s="28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="5"/>
+      <c r="I29" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L29" s="28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="5"/>
+      <c r="L30" s="28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="28" t="s">
+        <v>298</v>
+      </c>
       <c r="C31" s="5"/>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H31" s="5"/>
+      <c r="L31" s="28" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="15"/>
+      <c r="L32" s="28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="23" t="s">
+      <c r="G33" s="22" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L33" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="G34" s="16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L34" s="28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="B35" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L35" s="28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L36" s="28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="G37" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L37" s="28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="G38" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L38" s="28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="G39" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L39" s="28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="G40" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L40" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="G41" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L41" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="G42" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="21" t="s">
+      <c r="L42" s="28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="G43" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="21" t="s">
+      <c r="L43" s="28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="G44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L44" s="28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="B45" s="29"/>
+      <c r="G45" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L45" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="G46" s="19"/>
+      <c r="L46" s="28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="30" t="s">
         <v>186</v>
       </c>
       <c r="B47" s="5"/>
-      <c r="F47" s="16" t="s">
+      <c r="C47" s="5"/>
+      <c r="G47" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="16"/>
+      <c r="L47" s="28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="F48" s="16" t="s">
+      <c r="B48" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="G48" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H48" s="16"/>
+      <c r="L48" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="G49" s="14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L49" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="F50" s="5" t="s">
+      <c r="B50" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="G50" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="5"/>
+      <c r="I50" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L50" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="G51" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="5"/>
+      <c r="I51" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L51" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="F52" s="5" t="s">
+      <c r="B52" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="G52" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="5"/>
+      <c r="I52" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L52" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="F53" s="5" t="s">
+      <c r="B53" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="G53" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="5"/>
+      <c r="I53" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L53" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D54" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="5"/>
+      <c r="I54" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12">
       <c r="A55" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="5"/>
+      <c r="I55" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12">
       <c r="A56" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="D56" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="5"/>
+      <c r="I56" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12">
       <c r="A57" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="5"/>
+      <c r="I57" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12">
       <c r="A58" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="5"/>
+      <c r="I58" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12">
       <c r="A59" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="G59" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="5"/>
+      <c r="I59" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12">
       <c r="A60" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="D60" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F60" s="19"/>
-      <c r="G60" s="14"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F61" s="16" t="s">
+      <c r="G60" s="19"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="G61" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F62" s="16" t="s">
+      <c r="H61" s="16"/>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="G62" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F63" s="14" t="s">
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="G63" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F64" s="5" t="s">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="G64" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="25" t="s">
+      <c r="H64" s="5"/>
+      <c r="I64" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F65" s="5" t="s">
+    <row r="65" spans="4:9">
+      <c r="G65" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="5"/>
+      <c r="I65" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F66" s="9" t="s">
+    <row r="66" spans="4:9">
+      <c r="G66" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="G66" s="5"/>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F67" s="9" t="s">
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="4:9">
+      <c r="G67" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="G67" s="5"/>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F68" s="5" t="s">
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="4:9">
+      <c r="G68" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="25" t="s">
+      <c r="H68" s="5"/>
+      <c r="I68" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F69" s="5" t="s">
+    <row r="69" spans="4:9">
+      <c r="G69" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="5"/>
+      <c r="I69" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F70" s="5" t="s">
+    <row r="70" spans="4:9">
+      <c r="G70" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="5"/>
+      <c r="I70" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F71" s="5" t="s">
+    <row r="71" spans="4:9">
+      <c r="G71" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="5"/>
+      <c r="I71" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F72" s="19"/>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F73" s="16" t="s">
+    <row r="72" spans="4:9">
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="4:9">
+      <c r="G73" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G73" s="16"/>
       <c r="H73" s="16"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F74" s="16" t="s">
+      <c r="I73" s="16"/>
+    </row>
+    <row r="74" spans="4:9">
+      <c r="G74" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="G74" s="16"/>
       <c r="H74" s="16"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F75" s="14" t="s">
+      <c r="I74" s="16"/>
+    </row>
+    <row r="75" spans="4:9">
+      <c r="G75" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F76" s="5" t="s">
+    <row r="76" spans="4:9">
+      <c r="G76" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="27" t="s">
+      <c r="H76" s="5"/>
+      <c r="I76" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C77" s="5"/>
-      <c r="F77" s="9" t="s">
+    <row r="77" spans="4:9">
+      <c r="D77" s="5"/>
+      <c r="G77" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C78" s="5"/>
-      <c r="F78" s="5" t="s">
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="4:9">
+      <c r="D78" s="5"/>
+      <c r="G78" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="27" t="s">
+      <c r="H78" s="5"/>
+      <c r="I78" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="9"/>
-      <c r="F79" s="5" t="s">
+    <row r="79" spans="4:9">
+      <c r="D79" s="9"/>
+      <c r="G79" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="27" t="s">
+      <c r="H79" s="5"/>
+      <c r="I79" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="5"/>
-      <c r="F80" s="5" t="s">
+    <row r="80" spans="4:9">
+      <c r="D80" s="5"/>
+      <c r="G80" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="27" t="s">
+      <c r="H80" s="5"/>
+      <c r="I80" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C81" s="9"/>
-      <c r="F81" s="19"/>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C82" s="5"/>
-      <c r="F82" s="16" t="s">
+    <row r="81" spans="2:9">
+      <c r="D81" s="9"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="D82" s="5"/>
+      <c r="G82" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="G82" s="16"/>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F83" s="16" t="s">
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="G83" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="G83" s="16"/>
-    </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F84" s="14" t="s">
+      <c r="H83" s="16"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="G84" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F85" s="5" t="s">
+    <row r="85" spans="2:9">
+      <c r="G85" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="24" t="s">
+      <c r="H85" s="5"/>
+      <c r="I85" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F86" s="5" t="s">
+    <row r="86" spans="2:9">
+      <c r="G86" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="24" t="s">
+      <c r="H86" s="5"/>
+      <c r="I86" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F87" s="5" t="s">
+    <row r="87" spans="2:9">
+      <c r="B87" s="28"/>
+      <c r="G87" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="24" t="s">
+      <c r="H87" s="5"/>
+      <c r="I87" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F88" s="5" t="s">
+    <row r="88" spans="2:9">
+      <c r="B88" s="28"/>
+      <c r="G88" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="24" t="s">
+      <c r="H88" s="5"/>
+      <c r="I88" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F89" s="5" t="s">
+    <row r="89" spans="2:9">
+      <c r="G89" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="24" t="s">
+      <c r="H89" s="5"/>
+      <c r="I89" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F90" s="5" t="s">
+    <row r="90" spans="2:9">
+      <c r="G90" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="24" t="s">
+      <c r="H90" s="5"/>
+      <c r="I90" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F91" s="19"/>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="16" t="s">
+    <row r="91" spans="2:9">
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="G92" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G92" s="16"/>
-    </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F93" s="16" t="s">
+      <c r="H92" s="16"/>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="G93" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="G93" s="16"/>
-    </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F94" s="2" t="s">
+      <c r="H93" s="16"/>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="G94" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F95" s="5" t="s">
+    <row r="95" spans="2:9">
+      <c r="G95" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="G95" s="5"/>
       <c r="H95" s="5"/>
-    </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="F96" s="5" t="s">
+      <c r="I95" s="5"/>
+    </row>
+    <row r="96" spans="2:9">
+      <c r="G96" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F97" s="5" t="s">
+      <c r="I96" s="5"/>
+    </row>
+    <row r="97" spans="2:9">
+      <c r="B97" s="28"/>
+      <c r="G97" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="G97" s="5"/>
       <c r="H97" s="5"/>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F98" s="2" t="s">
+      <c r="I97" s="5"/>
+    </row>
+    <row r="98" spans="2:9">
+      <c r="B98" s="28"/>
+      <c r="G98" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F99" s="16" t="s">
+    <row r="99" spans="2:9">
+      <c r="B99" s="28"/>
+      <c r="G99" s="16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F100" s="14" t="s">
+    <row r="100" spans="2:9">
+      <c r="B100" s="28"/>
+      <c r="G100" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F101" s="14" t="s">
+    <row r="101" spans="2:9">
+      <c r="G101" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F102" s="14" t="s">
+    <row r="102" spans="2:9">
+      <c r="B102" s="28"/>
+      <c r="G102" s="14" t="s">
         <v>277</v>
       </c>
     </row>
+    <row r="105" spans="2:9">
+      <c r="B105" s="28"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C5" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}"/>
+  <autoFilter ref="A1:D5" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4420,422 +4921,422 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1">
       <c r="A13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="B87" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="B88" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="B89" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="B91" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="B92" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="B93" t="s">
         <v>132</v>
       </c>
@@ -4851,9 +5352,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4876,7 +5377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -4910,9 +5411,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4932,7 +5433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -4960,9 +5461,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4993,9 +5494,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5009,7 +5510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -5031,9 +5532,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>1</v>
       </c>

--- a/StatusInvestcomp.xlsx
+++ b/StatusInvestcomp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557C915D-6949-4918-A959-1E8FD4822829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DA138-B45F-41A2-987F-B78CEFFB830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3501,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B105"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/StatusInvestcomp.xlsx
+++ b/StatusInvestcomp.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550DA138-B45F-41A2-987F-B78CEFFB830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F23CD-14CF-4D1F-8D50-FD5DB1D1572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="IndValuation" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="9" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="8" r:id="rId4"/>
-    <sheet name="IndEndividamento" sheetId="3" r:id="rId5"/>
-    <sheet name="IndiEficiência" sheetId="4" r:id="rId6"/>
-    <sheet name="IndiRentabilidade" sheetId="5" r:id="rId7"/>
-    <sheet name="IndiCrescimento" sheetId="6" r:id="rId8"/>
-    <sheet name="IndEmpresa" sheetId="7" r:id="rId9"/>
+    <sheet name="Planilha3" sheetId="10" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="8" r:id="rId5"/>
+    <sheet name="IndEndividamento" sheetId="3" r:id="rId6"/>
+    <sheet name="IndiEficiência" sheetId="4" r:id="rId7"/>
+    <sheet name="IndiRentabilidade" sheetId="5" r:id="rId8"/>
+    <sheet name="IndiCrescimento" sheetId="6" r:id="rId9"/>
+    <sheet name="IndEmpresa" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$D$5</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="364">
   <si>
     <t>FONTE</t>
   </si>
@@ -1047,9 +1048,6 @@
   </si>
   <si>
     <t>balance_sheet</t>
-  </si>
-  <si>
-    <t>Patrimônio líquid</t>
   </si>
   <si>
     <t>Ativo</t>
@@ -2796,13 +2794,85 @@
   </si>
   <si>
     <t>Free Float</t>
+  </si>
+  <si>
+    <t>Dicprice_information</t>
+  </si>
+  <si>
+    <t>Dicdetailed_information</t>
+  </si>
+  <si>
+    <t>Dicbalance_sheet</t>
+  </si>
+  <si>
+    <t>Patrimônio líquido</t>
+  </si>
+  <si>
+    <t>"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    valoratual  =  f"{float(Dicprice_information.get("Cotação")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    min52semanas = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    max52semanas = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dividendyield =  ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    valorizacao12m = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tipo = Dicdetailed_information.get("Tipo")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    tagalong = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    liquidezmediadiaria = f"{float(Dicdetailed_information.get("Volume negociado por dia")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    participacaonoibov = "" #f"{float(Dicvaluation_indicators.get("Patrimônio líquido")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mercadodeopcoes = ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    patrimonioliquido = f"{float(Dicbalance_sheet.get("Patrimônio líquido")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ativos =  f"{float(Dicbalance_sheet.get("Ativo")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ativocirculante = f"{float(Dicbalance_sheet.get("Ativo circulante")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dividabruta = f"{float(Dicbalance_sheet.get("Dívida bruta")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    disponibilidade =  f"{float(Dicbalance_sheet.get("Disponibilidades")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dividaliquida = f"{float(Dicbalance_sheet.get("Dívida líquida")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    valordemercado = f"{float(Dicfinancial_summary.get("Valor de mercado")) * 100}%"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    valordefirma =    ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    freefloat =  ""</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2897,6 +2967,12 @@
       <b/>
       <sz val="10"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3009,7 +3085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3043,11 +3119,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3101,9 +3186,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3416,6 +3505,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N3"/>
@@ -3501,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3525,14 +3686,14 @@
         <v>135</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="18"/>
       <c r="L1" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3540,7 +3701,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>26</v>
@@ -3549,11 +3710,11 @@
         <v>134</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H2" s="18"/>
       <c r="L2" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3561,15 +3722,15 @@
         <v>143</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="G3" s="20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L3" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3577,7 +3738,7 @@
         <v>144</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>28</v>
@@ -3586,11 +3747,11 @@
         <v>134</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H4" s="5"/>
       <c r="L4" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -3598,7 +3759,7 @@
         <v>145</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>29</v>
@@ -3607,11 +3768,11 @@
         <v>134</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H5" s="5"/>
       <c r="L5" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -3621,7 +3782,7 @@
       <c r="D6" s="5"/>
       <c r="G6" s="19"/>
       <c r="L6" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3634,7 +3795,7 @@
       </c>
       <c r="H7" s="17"/>
       <c r="L7" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -3649,7 +3810,7 @@
       </c>
       <c r="H8" s="17"/>
       <c r="L8" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3657,16 +3818,16 @@
         <v>182</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="G9" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I9" s="20"/>
       <c r="L9" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -3674,21 +3835,21 @@
         <v>183</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I10" s="23" t="s">
         <v>184</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -3697,10 +3858,10 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -3709,10 +3870,10 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="G12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L12" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -3723,10 +3884,10 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="G13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L13" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -3734,7 +3895,7 @@
         <v>146</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>138</v>
@@ -3743,10 +3904,10 @@
         <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L14" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -3754,15 +3915,15 @@
         <v>147</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -3770,7 +3931,7 @@
         <v>148</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>139</v>
@@ -3781,7 +3942,7 @@
       <c r="G16" s="21"/>
       <c r="I16" s="21"/>
       <c r="L16" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3789,7 +3950,7 @@
         <v>149</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>140</v>
@@ -3802,7 +3963,7 @@
       </c>
       <c r="H17" s="17"/>
       <c r="L17" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3811,11 +3972,11 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="G18" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H18" s="17"/>
       <c r="L18" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3824,10 +3985,10 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="G19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L19" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3838,13 +3999,13 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="G20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>184</v>
       </c>
       <c r="L20" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3852,7 +4013,7 @@
         <v>150</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>155</v>
@@ -3861,10 +4022,10 @@
         <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L21" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3872,7 +4033,7 @@
         <v>151</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>156</v>
@@ -3881,7 +4042,7 @@
         <v>154</v>
       </c>
       <c r="L22" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3889,7 +4050,7 @@
         <v>180</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -3898,7 +4059,7 @@
       </c>
       <c r="H23" s="16"/>
       <c r="L23" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3906,7 +4067,7 @@
         <v>152</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>19</v>
@@ -3919,7 +4080,7 @@
       </c>
       <c r="H24" s="16"/>
       <c r="L24" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -3927,15 +4088,15 @@
         <v>181</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="G25" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L25" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -3943,7 +4104,7 @@
         <v>153</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>157</v>
@@ -3952,14 +4113,14 @@
         <v>154</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="23" t="s">
         <v>184</v>
       </c>
       <c r="L26" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3968,14 +4129,14 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="23" t="s">
         <v>184</v>
       </c>
       <c r="L27" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -3986,14 +4147,14 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L28" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -4001,7 +4162,7 @@
         <v>159</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>164</v>
@@ -4010,14 +4171,14 @@
         <v>165</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L29" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -4025,7 +4186,7 @@
         <v>160</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>3</v>
@@ -4034,11 +4195,11 @@
         <v>165</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H30" s="5"/>
       <c r="L30" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -4046,16 +4207,16 @@
         <v>178</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="G31" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H31" s="5"/>
       <c r="L31" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -4063,7 +4224,7 @@
         <v>161</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -4073,7 +4234,7 @@
       </c>
       <c r="G32" s="15"/>
       <c r="L32" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -4081,7 +4242,7 @@
         <v>162</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
@@ -4093,7 +4254,7 @@
         <v>75</v>
       </c>
       <c r="L33" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -4101,7 +4262,7 @@
         <v>163</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>7</v>
@@ -4110,10 +4271,10 @@
         <v>165</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L34" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -4121,13 +4282,13 @@
         <v>179</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L35" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -4135,7 +4296,7 @@
         <v>166</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>9</v>
@@ -4144,10 +4305,10 @@
         <v>165</v>
       </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -4155,7 +4316,7 @@
         <v>167</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>10</v>
@@ -4164,10 +4325,10 @@
         <v>173</v>
       </c>
       <c r="G37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L37" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -4175,7 +4336,7 @@
         <v>168</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>177</v>
@@ -4184,10 +4345,10 @@
         <v>165</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -4195,7 +4356,7 @@
         <v>169</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -4204,10 +4365,10 @@
         <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L39" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -4215,7 +4376,7 @@
         <v>170</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>176</v>
@@ -4224,10 +4385,10 @@
         <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L40" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -4235,7 +4396,7 @@
         <v>171</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>174</v>
@@ -4244,10 +4405,10 @@
         <v>165</v>
       </c>
       <c r="G41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L41" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -4255,7 +4416,7 @@
         <v>172</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>175</v>
@@ -4264,26 +4425,26 @@
         <v>165</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L42" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="G43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L43" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="G44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L44" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -4292,10 +4453,10 @@
       </c>
       <c r="B45" s="29"/>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L45" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -4303,17 +4464,20 @@
         <v>185</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>209</v>
+      <c r="E46" s="32" t="s">
+        <v>340</v>
       </c>
       <c r="G46" s="19"/>
       <c r="L46" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -4327,7 +4491,7 @@
       </c>
       <c r="H47" s="16"/>
       <c r="L47" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -4335,7 +4499,7 @@
         <v>187</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C48" s="5"/>
       <c r="G48" s="16" t="s">
@@ -4343,7 +4507,7 @@
       </c>
       <c r="H48" s="16"/>
       <c r="L48" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -4351,7 +4515,7 @@
         <v>188</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>38</v>
@@ -4359,11 +4523,14 @@
       <c r="D49" s="11" t="s">
         <v>173</v>
       </c>
+      <c r="E49" t="s">
+        <v>341</v>
+      </c>
       <c r="G49" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L49" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -4371,18 +4538,18 @@
         <v>199</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C50" s="5"/>
       <c r="G50" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L50" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -4390,7 +4557,7 @@
         <v>189</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>198</v>
@@ -4399,14 +4566,14 @@
         <v>173</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L51" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -4414,18 +4581,18 @@
         <v>200</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C52" s="5"/>
       <c r="G52" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L52" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -4433,18 +4600,18 @@
         <v>201</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C53" s="5"/>
       <c r="G53" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="4" t="s">
         <v>158</v>
       </c>
       <c r="L53" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -4452,16 +4619,19 @@
         <v>190</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>202</v>
       </c>
+      <c r="E54" t="s">
+        <v>342</v>
+      </c>
       <c r="G54" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="4" t="s">
@@ -4473,16 +4643,16 @@
         <v>191</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>202</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="4" t="s">
@@ -4494,7 +4664,7 @@
         <v>192</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>45</v>
@@ -4503,7 +4673,7 @@
         <v>202</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H56" s="5"/>
       <c r="I56" s="4" t="s">
@@ -4515,16 +4685,16 @@
         <v>193</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>202</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="4" t="s">
@@ -4536,16 +4706,16 @@
         <v>194</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>202</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="4" t="s">
@@ -4557,16 +4727,16 @@
         <v>195</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>202</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="4" t="s">
@@ -4578,7 +4748,7 @@
         <v>196</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>49</v>
@@ -4591,10 +4761,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>99</v>
@@ -4603,10 +4773,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>134</v>
@@ -4615,13 +4785,13 @@
     </row>
     <row r="63" spans="1:12">
       <c r="G63" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:12">
       <c r="G64" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="24" t="s">
@@ -4630,7 +4800,7 @@
     </row>
     <row r="65" spans="4:9">
       <c r="G65" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="24" t="s">
@@ -4639,19 +4809,19 @@
     </row>
     <row r="66" spans="4:9">
       <c r="G66" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H66" s="5"/>
     </row>
     <row r="67" spans="4:9">
       <c r="G67" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H67" s="5"/>
     </row>
     <row r="68" spans="4:9">
       <c r="G68" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H68" s="5"/>
       <c r="I68" s="24" t="s">
@@ -4660,7 +4830,7 @@
     </row>
     <row r="69" spans="4:9">
       <c r="G69" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="25" t="s">
@@ -4669,7 +4839,7 @@
     </row>
     <row r="70" spans="4:9">
       <c r="G70" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H70" s="5"/>
       <c r="I70" s="25" t="s">
@@ -4678,7 +4848,7 @@
     </row>
     <row r="71" spans="4:9">
       <c r="G71" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="25" t="s">
@@ -4697,19 +4867,19 @@
     </row>
     <row r="74" spans="4:9">
       <c r="G74" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H74" s="16"/>
       <c r="I74" s="16"/>
     </row>
     <row r="75" spans="4:9">
       <c r="G75" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="4:9">
       <c r="G76" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="26" t="s">
@@ -4719,7 +4889,7 @@
     <row r="77" spans="4:9">
       <c r="D77" s="5"/>
       <c r="G77" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -4727,7 +4897,7 @@
     <row r="78" spans="4:9">
       <c r="D78" s="5"/>
       <c r="G78" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="26" t="s">
@@ -4737,7 +4907,7 @@
     <row r="79" spans="4:9">
       <c r="D79" s="9"/>
       <c r="G79" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="26" t="s">
@@ -4747,7 +4917,7 @@
     <row r="80" spans="4:9">
       <c r="D80" s="5"/>
       <c r="G80" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H80" s="5"/>
       <c r="I80" s="26" t="s">
@@ -4773,12 +4943,12 @@
     </row>
     <row r="84" spans="2:9">
       <c r="G84" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="2:9">
       <c r="G85" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="23" t="s">
@@ -4787,7 +4957,7 @@
     </row>
     <row r="86" spans="2:9">
       <c r="G86" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="23" t="s">
@@ -4797,7 +4967,7 @@
     <row r="87" spans="2:9">
       <c r="B87" s="28"/>
       <c r="G87" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="23" t="s">
@@ -4807,7 +4977,7 @@
     <row r="88" spans="2:9">
       <c r="B88" s="28"/>
       <c r="G88" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="23" t="s">
@@ -4816,7 +4986,7 @@
     </row>
     <row r="89" spans="2:9">
       <c r="G89" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="23" t="s">
@@ -4825,7 +4995,7 @@
     </row>
     <row r="90" spans="2:9">
       <c r="G90" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="23" t="s">
@@ -4843,7 +5013,7 @@
     </row>
     <row r="93" spans="2:9">
       <c r="G93" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H93" s="16"/>
     </row>
@@ -4854,14 +5024,14 @@
     </row>
     <row r="95" spans="2:9">
       <c r="G95" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
     </row>
     <row r="96" spans="2:9">
       <c r="G96" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -4869,7 +5039,7 @@
     <row r="97" spans="2:9">
       <c r="B97" s="28"/>
       <c r="G97" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -4883,24 +5053,24 @@
     <row r="99" spans="2:9">
       <c r="B99" s="28"/>
       <c r="G99" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="2:9">
       <c r="B100" s="28"/>
       <c r="G100" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="2:9">
       <c r="G101" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="2:9">
       <c r="B102" s="28"/>
       <c r="G102" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="2:9">
@@ -4914,6 +5084,126 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30745AC-AC75-4486-A81F-36635801E5B1}">
+  <dimension ref="C4:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="33" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="33" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="33" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="33" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="33" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="33" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="33" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="33" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE47A12A-8F27-4477-8015-94D6B83E6EAD}">
   <dimension ref="A2:B93"/>
   <sheetViews>
@@ -5346,7 +5636,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -5405,7 +5695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -5455,7 +5745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -5488,7 +5778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -5524,76 +5814,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/StatusInvestcomp.xlsx
+++ b/StatusInvestcomp.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F23CD-14CF-4D1F-8D50-FD5DB1D1572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E6BDC-5A4B-4A1F-BE1C-18E736E715A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="IndValuation" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="9" r:id="rId3"/>
     <sheet name="Planilha3" sheetId="10" r:id="rId4"/>
-    <sheet name="Planilha1" sheetId="8" r:id="rId5"/>
-    <sheet name="IndEndividamento" sheetId="3" r:id="rId6"/>
-    <sheet name="IndiEficiência" sheetId="4" r:id="rId7"/>
-    <sheet name="IndiRentabilidade" sheetId="5" r:id="rId8"/>
-    <sheet name="IndiCrescimento" sheetId="6" r:id="rId9"/>
-    <sheet name="IndEmpresa" sheetId="7" r:id="rId10"/>
+    <sheet name="Planilha4" sheetId="11" r:id="rId5"/>
+    <sheet name="Planilha1" sheetId="8" r:id="rId6"/>
+    <sheet name="IndEndividamento" sheetId="3" r:id="rId7"/>
+    <sheet name="IndiEficiência" sheetId="4" r:id="rId8"/>
+    <sheet name="IndiRentabilidade" sheetId="5" r:id="rId9"/>
+    <sheet name="IndiCrescimento" sheetId="6" r:id="rId10"/>
+    <sheet name="IndEmpresa" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$D$5</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="381">
   <si>
     <t>FONTE</t>
   </si>
@@ -2866,6 +2867,58 @@
   </si>
   <si>
     <t xml:space="preserve">    freefloat =  ""</t>
+  </si>
+  <si>
+    <t>FCF_Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19.14</t>
+  </si>
+  <si>
+    <t>Valor:</t>
+  </si>
+  <si>
+    <t>Avaliação</t>
+  </si>
+  <si>
+    <t>otimo</t>
+  </si>
+  <si>
+    <t>Rendimento do fluxo de caixa livre. Acima de 10% é considerado bom</t>
+  </si>
+  <si>
+    <t>Referência</t>
+  </si>
+  <si>
+    <t>baixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bom:</t>
+  </si>
+  <si>
+    <t>otimo:</t>
+  </si>
+  <si>
+    <t>regular: 5 a 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bom: 10 a 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> otimo: &gt; 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> baixo: 0 a 5
+</t>
+  </si>
+  <si>
+    <t>IndiEficiência</t>
+  </si>
+  <si>
+    <t>Indicadot</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3189,9 +3242,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3506,6 +3562,44 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>0.26860000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S1"/>
   <sheetViews>
@@ -5087,7 +5181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30745AC-AC75-4486-A81F-36635801E5B1}">
   <dimension ref="C4:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -5204,6 +5298,85 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1A8FFD-B304-4106-A3D2-62066FBB9076}">
+  <dimension ref="A2:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8">
+      <c r="A3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="G3" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" t="s">
+        <v>376</v>
+      </c>
+      <c r="I3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE47A12A-8F27-4477-8015-94D6B83E6EAD}">
   <dimension ref="A2:B93"/>
   <sheetViews>
@@ -5636,7 +5809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -5695,7 +5868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -5745,7 +5918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -5776,42 +5949,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>0.26860000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/StatusInvestcomp.xlsx
+++ b/StatusInvestcomp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617E6BDC-5A4B-4A1F-BE1C-18E736E715A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014BC6E7-5255-4829-90DB-EAD0F611C5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,14 @@
     <sheet name="IndEmpresa" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Planilha2!$B$1:$E$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="383">
   <si>
     <t>FONTE</t>
   </si>
@@ -2919,6 +2919,12 @@
   </si>
   <si>
     <t>Indicadot</t>
+  </si>
+  <si>
+    <t>Programa</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -3754,1424 +3760,1454 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="L1" s="28" t="s">
+      <c r="I1" s="18"/>
+      <c r="M1" s="28" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13">
+      <c r="B2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="L2" s="28" t="s">
+      <c r="I2" s="18"/>
+      <c r="M2" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:13">
+      <c r="B3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="5"/>
+      <c r="H3" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="M3" s="28" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13">
+      <c r="B4" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="C4" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="L4" s="28" t="s">
+      <c r="I4" s="5"/>
+      <c r="M4" s="28" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:13">
+      <c r="B5" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="C5" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="L5" s="28" t="s">
+      <c r="I5" s="5"/>
+      <c r="M5" s="28" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:13">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="G6" s="19"/>
-      <c r="L6" s="28" t="s">
+      <c r="E6" s="5"/>
+      <c r="H6" s="19"/>
+      <c r="M6" s="28" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:13">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="5"/>
+      <c r="H7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="L7" s="28" t="s">
+      <c r="I7" s="17"/>
+      <c r="M7" s="28" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:13">
+      <c r="B8" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="5"/>
+      <c r="H8" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="L8" s="28" t="s">
+      <c r="I8" s="17"/>
+      <c r="M8" s="28" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:13">
+      <c r="B9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="G9" s="20" t="s">
+      <c r="E9" s="5"/>
+      <c r="H9" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="L9" s="28" t="s">
+      <c r="J9" s="20"/>
+      <c r="M9" s="28" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:13">
+      <c r="B10" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="C10" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="G10" t="s">
+      <c r="E10" s="5"/>
+      <c r="H10" t="s">
         <v>211</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>280</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="J10" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="M10" s="28" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:13">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="G11" t="s">
+      <c r="E11" s="5"/>
+      <c r="H11" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="M11" s="28" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:13">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="G12" t="s">
+      <c r="E12" s="5"/>
+      <c r="H12" t="s">
         <v>213</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="M12" s="28" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:13">
+      <c r="B13" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5"/>
-      <c r="G13" t="s">
+      <c r="E13" s="5"/>
+      <c r="H13" t="s">
         <v>214</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="M13" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>215</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="M14" s="28" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="C15" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="G15" t="s">
+      <c r="E15" s="5"/>
+      <c r="H15" t="s">
         <v>216</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="M15" s="28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="L16" s="28" t="s">
+      <c r="H16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="M16" s="28" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="H17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="L17" s="28" t="s">
+      <c r="I17" s="17"/>
+      <c r="M17" s="28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:13">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="G18" s="17" t="s">
+      <c r="E18" s="5"/>
+      <c r="H18" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="L18" s="28" t="s">
+      <c r="I18" s="17"/>
+      <c r="M18" s="28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:13">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="G19" t="s">
+      <c r="E19" s="5"/>
+      <c r="H19" t="s">
         <v>218</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="M19" s="28" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:13">
+      <c r="B20" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="5"/>
-      <c r="G20" t="s">
+      <c r="E20" s="5"/>
+      <c r="H20" t="s">
         <v>219</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="J20" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="M20" s="28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="M21" s="28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="M22" s="28" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="C23" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="G23" s="16" t="s">
+      <c r="E23" s="5"/>
+      <c r="H23" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="L23" s="28" t="s">
+      <c r="I23" s="16"/>
+      <c r="M23" s="28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="C24" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="H24" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="L24" s="28" t="s">
+      <c r="I24" s="16"/>
+      <c r="M24" s="28" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:13">
+      <c r="B25" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="C25" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="G25" s="14" t="s">
+      <c r="E25" s="5"/>
+      <c r="H25" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="L25" s="28" t="s">
+      <c r="M25" s="28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="C26" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="5"/>
+      <c r="J26" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="M26" s="28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:13">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="G27" s="5" t="s">
+      <c r="E27" s="5"/>
+      <c r="H27" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="23" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="M27" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:13">
+      <c r="B28" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="5"/>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="5"/>
+      <c r="H28" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="5"/>
+      <c r="J28" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="M28" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:13">
+      <c r="B29" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="C29" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="5"/>
+      <c r="J29" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L29" s="28" t="s">
+      <c r="M29" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:13">
+      <c r="B30" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="C30" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="L30" s="28" t="s">
+      <c r="I30" s="5"/>
+      <c r="M30" s="28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:13">
+      <c r="B31" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="C31" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="G31" s="5" t="s">
+      <c r="E31" s="5"/>
+      <c r="H31" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="L31" s="28" t="s">
+      <c r="I31" s="5"/>
+      <c r="M31" s="28" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:13">
+      <c r="B32" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="C32" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="L32" s="28" t="s">
+      <c r="H32" s="15"/>
+      <c r="M32" s="28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="2:13">
+      <c r="B33" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="C33" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L33" s="28" t="s">
+      <c r="M33" s="28" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="2:13">
+      <c r="B34" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="C34" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="H34" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="M34" s="28" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="2:13">
+      <c r="B35" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="C35" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="H35" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="L35" s="28" t="s">
+      <c r="M35" s="28" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="2:13">
+      <c r="B36" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="C36" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>229</v>
       </c>
-      <c r="L36" s="28" t="s">
+      <c r="M36" s="28" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="2:13">
+      <c r="B37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="C37" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>230</v>
       </c>
-      <c r="L37" s="28" t="s">
+      <c r="M37" s="28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="2:13">
+      <c r="B38" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="C38" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>231</v>
       </c>
-      <c r="L38" s="28" t="s">
+      <c r="M38" s="28" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="2:13">
+      <c r="B39" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="C39" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="E39" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>232</v>
       </c>
-      <c r="L39" s="28" t="s">
+      <c r="M39" s="28" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="2:13">
+      <c r="B40" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="C40" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>233</v>
       </c>
-      <c r="L40" s="28" t="s">
+      <c r="M40" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="2:13">
+      <c r="B41" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="C41" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="E41" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>234</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="M41" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="2:13">
+      <c r="B42" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="C42" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>235</v>
       </c>
-      <c r="L42" s="28" t="s">
+      <c r="M42" s="28" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="G43" t="s">
+    <row r="43" spans="2:13">
+      <c r="H43" t="s">
         <v>236</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="M43" s="28" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="G44" t="s">
+    <row r="44" spans="2:13">
+      <c r="H44" t="s">
         <v>237</v>
       </c>
-      <c r="L44" s="28" t="s">
+      <c r="M44" s="28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="2:13">
+      <c r="B45" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="G45" t="s">
+      <c r="C45" s="29"/>
+      <c r="H45" t="s">
         <v>238</v>
       </c>
-      <c r="L45" s="28" t="s">
+      <c r="M45" s="28" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="2:13">
+      <c r="B46" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="F46" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="L46" s="28" t="s">
+      <c r="H46" s="19"/>
+      <c r="M46" s="28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="30" t="s">
+    <row r="47" spans="2:13">
+      <c r="B47" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="G47" s="16" t="s">
+      <c r="D47" s="5"/>
+      <c r="H47" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="L47" s="28" t="s">
+      <c r="I47" s="16"/>
+      <c r="M47" s="28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="2:13">
+      <c r="B48" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="C48" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="G48" s="16" t="s">
+      <c r="D48" s="5"/>
+      <c r="H48" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="L48" s="28" t="s">
+      <c r="I48" s="16"/>
+      <c r="M48" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="2:13">
+      <c r="B49" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="C49" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>341</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="H49" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="L49" s="28" t="s">
+      <c r="M49" s="28" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="9" t="s">
+    <row r="50" spans="2:13">
+      <c r="B50" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="C50" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="G50" s="5" t="s">
+      <c r="D50" s="5"/>
+      <c r="H50" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="5"/>
+      <c r="J50" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L50" s="28" t="s">
+      <c r="M50" s="28" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="2:13">
+      <c r="B51" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="C51" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="H51" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H51" s="5"/>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="5"/>
+      <c r="J51" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L51" s="28" t="s">
+      <c r="M51" s="28" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="9" t="s">
+    <row r="52" spans="2:13">
+      <c r="B52" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="C52" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="G52" s="5" t="s">
+      <c r="D52" s="5"/>
+      <c r="H52" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="5"/>
+      <c r="J52" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="M52" s="28" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="9" t="s">
+    <row r="53" spans="2:13">
+      <c r="B53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="C53" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="G53" s="5" t="s">
+      <c r="D53" s="5"/>
+      <c r="H53" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H53" s="5"/>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="5"/>
+      <c r="J53" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="M53" s="28" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="2:13">
+      <c r="B54" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="C54" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="E54" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>342</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="5"/>
+      <c r="J54" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="2:13">
+      <c r="B55" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="C55" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="D55" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="E55" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="H55" s="5"/>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="5"/>
+      <c r="J55" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="2:13">
+      <c r="B56" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="C56" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="E56" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="5"/>
+      <c r="J56" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="2:13">
+      <c r="B57" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="C57" s="28" t="s">
         <v>328</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="D57" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="E57" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="5"/>
+      <c r="J57" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="2:13">
+      <c r="B58" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="C58" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="E58" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="H58" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="H58" s="5"/>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="5"/>
+      <c r="J58" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="2:13">
+      <c r="B59" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="C59" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H59" s="5"/>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="5"/>
+      <c r="J59" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="2:13">
+      <c r="B60" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="C60" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="31" t="s">
+      <c r="H60" s="19"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="C61" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="H61" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H61" s="16"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="31" t="s">
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="C62" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="H62" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="G63" s="14" t="s">
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="H63" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="G64" s="5" t="s">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="H64" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H64" s="5"/>
-      <c r="I64" s="24" t="s">
+      <c r="I64" s="5"/>
+      <c r="J64" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="4:9">
-      <c r="G65" s="5" t="s">
+    <row r="65" spans="5:10">
+      <c r="H65" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="H65" s="5"/>
-      <c r="I65" s="24" t="s">
+      <c r="I65" s="5"/>
+      <c r="J65" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="4:9">
-      <c r="G66" s="9" t="s">
+    <row r="66" spans="5:10">
+      <c r="H66" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="4:9">
-      <c r="G67" s="9" t="s">
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="5:10">
+      <c r="H67" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="4:9">
-      <c r="G68" s="5" t="s">
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="5:10">
+      <c r="H68" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H68" s="5"/>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="5"/>
+      <c r="J68" s="24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="4:9">
-      <c r="G69" s="5" t="s">
+    <row r="69" spans="5:10">
+      <c r="H69" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H69" s="5"/>
-      <c r="I69" s="25" t="s">
+      <c r="I69" s="5"/>
+      <c r="J69" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="4:9">
-      <c r="G70" s="5" t="s">
+    <row r="70" spans="5:10">
+      <c r="H70" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H70" s="5"/>
-      <c r="I70" s="25" t="s">
+      <c r="I70" s="5"/>
+      <c r="J70" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="4:9">
-      <c r="G71" s="5" t="s">
+    <row r="71" spans="5:10">
+      <c r="H71" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="H71" s="5"/>
-      <c r="I71" s="25" t="s">
+      <c r="I71" s="5"/>
+      <c r="J71" s="25" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="72" spans="4:9">
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="4:9">
-      <c r="G73" s="16" t="s">
+    <row r="72" spans="5:10">
+      <c r="H72" s="19"/>
+    </row>
+    <row r="73" spans="5:10">
+      <c r="H73" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H73" s="16"/>
       <c r="I73" s="16"/>
-    </row>
-    <row r="74" spans="4:9">
-      <c r="G74" s="16" t="s">
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="5:10">
+      <c r="H74" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="H74" s="16"/>
       <c r="I74" s="16"/>
-    </row>
-    <row r="75" spans="4:9">
-      <c r="G75" s="14" t="s">
+      <c r="J74" s="16"/>
+    </row>
+    <row r="75" spans="5:10">
+      <c r="H75" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="4:9">
-      <c r="G76" s="5" t="s">
+    <row r="76" spans="5:10">
+      <c r="H76" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="26" t="s">
+      <c r="I76" s="5"/>
+      <c r="J76" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="77" spans="4:9">
-      <c r="D77" s="5"/>
-      <c r="G77" s="9" t="s">
+    <row r="77" spans="5:10">
+      <c r="E77" s="5"/>
+      <c r="H77" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="H77" s="5"/>
       <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="4:9">
-      <c r="D78" s="5"/>
-      <c r="G78" s="5" t="s">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="5:10">
+      <c r="E78" s="5"/>
+      <c r="H78" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="26" t="s">
+      <c r="I78" s="5"/>
+      <c r="J78" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="4:9">
-      <c r="D79" s="9"/>
-      <c r="G79" s="5" t="s">
+    <row r="79" spans="5:10">
+      <c r="E79" s="9"/>
+      <c r="H79" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="H79" s="5"/>
-      <c r="I79" s="26" t="s">
+      <c r="I79" s="5"/>
+      <c r="J79" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="4:9">
-      <c r="D80" s="5"/>
-      <c r="G80" s="5" t="s">
+    <row r="80" spans="5:10">
+      <c r="E80" s="5"/>
+      <c r="H80" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="26" t="s">
+      <c r="I80" s="5"/>
+      <c r="J80" s="26" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
-      <c r="D81" s="9"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="D82" s="5"/>
-      <c r="G82" s="16" t="s">
+    <row r="81" spans="3:10">
+      <c r="E81" s="9"/>
+      <c r="H81" s="19"/>
+    </row>
+    <row r="82" spans="3:10">
+      <c r="E82" s="5"/>
+      <c r="H82" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H82" s="16"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="G83" s="16" t="s">
+      <c r="I82" s="16"/>
+    </row>
+    <row r="83" spans="3:10">
+      <c r="H83" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="H83" s="16"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="G84" s="14" t="s">
+      <c r="I83" s="16"/>
+    </row>
+    <row r="84" spans="3:10">
+      <c r="H84" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
-      <c r="G85" s="5" t="s">
+    <row r="85" spans="3:10">
+      <c r="H85" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="H85" s="5"/>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="5"/>
+      <c r="J85" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
-      <c r="G86" s="5" t="s">
+    <row r="86" spans="3:10">
+      <c r="H86" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H86" s="5"/>
-      <c r="I86" s="23" t="s">
+      <c r="I86" s="5"/>
+      <c r="J86" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="28"/>
-      <c r="G87" s="5" t="s">
+    <row r="87" spans="3:10">
+      <c r="C87" s="28"/>
+      <c r="H87" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H87" s="5"/>
-      <c r="I87" s="23" t="s">
+      <c r="I87" s="5"/>
+      <c r="J87" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="28"/>
-      <c r="G88" s="5" t="s">
+    <row r="88" spans="3:10">
+      <c r="C88" s="28"/>
+      <c r="H88" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="H88" s="5"/>
-      <c r="I88" s="23" t="s">
+      <c r="I88" s="5"/>
+      <c r="J88" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
-      <c r="G89" s="5" t="s">
+    <row r="89" spans="3:10">
+      <c r="H89" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="H89" s="5"/>
-      <c r="I89" s="23" t="s">
+      <c r="I89" s="5"/>
+      <c r="J89" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
-      <c r="G90" s="5" t="s">
+    <row r="90" spans="3:10">
+      <c r="H90" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H90" s="5"/>
-      <c r="I90" s="23" t="s">
+      <c r="I90" s="5"/>
+      <c r="J90" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="G92" s="16" t="s">
+    <row r="91" spans="3:10">
+      <c r="H91" s="19"/>
+    </row>
+    <row r="92" spans="3:10">
+      <c r="H92" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H92" s="16"/>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="G93" s="16" t="s">
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" spans="3:10">
+      <c r="H93" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="H93" s="16"/>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="G94" s="2" t="s">
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="3:10">
+      <c r="H94" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
-      <c r="G95" s="5" t="s">
+    <row r="95" spans="3:10">
+      <c r="H95" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="2:9">
-      <c r="G96" s="5" t="s">
+      <c r="J95" s="5"/>
+    </row>
+    <row r="96" spans="3:10">
+      <c r="H96" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="2:9">
-      <c r="B97" s="28"/>
-      <c r="G97" s="5" t="s">
+      <c r="J96" s="5"/>
+    </row>
+    <row r="97" spans="3:10">
+      <c r="C97" s="28"/>
+      <c r="H97" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="2:9">
-      <c r="B98" s="28"/>
-      <c r="G98" s="2" t="s">
+      <c r="J97" s="5"/>
+    </row>
+    <row r="98" spans="3:10">
+      <c r="C98" s="28"/>
+      <c r="H98" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
-      <c r="B99" s="28"/>
-      <c r="G99" s="16" t="s">
+    <row r="99" spans="3:10">
+      <c r="C99" s="28"/>
+      <c r="H99" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
-      <c r="B100" s="28"/>
-      <c r="G100" s="14" t="s">
+    <row r="100" spans="3:10">
+      <c r="C100" s="28"/>
+      <c r="H100" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
-      <c r="G101" s="14" t="s">
+    <row r="101" spans="3:10">
+      <c r="H101" s="14" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
-      <c r="B102" s="28"/>
-      <c r="G102" s="14" t="s">
+    <row r="102" spans="3:10">
+      <c r="C102" s="28"/>
+      <c r="H102" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
-      <c r="B105" s="28"/>
+    <row r="105" spans="3:10">
+      <c r="C105" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D5" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}"/>
+  <autoFilter ref="B1:E5" xr:uid="{75F49DE2-6461-400F-AF53-413C76587499}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5301,7 +5337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1A8FFD-B304-4106-A3D2-62066FBB9076}">
   <dimension ref="A2:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
